--- a/links/links.xlsx
+++ b/links/links.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paa/Documents/Work/1. papers/1. submit/2a. bizdevops - pedro/github/links/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paa/Documents/GitHub/bizdevops/links/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D2D662-2F14-CD4C-980B-8DAFF22E7ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7FC816-0EF1-9847-AB1D-552D08103458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="500" windowWidth="18360" windowHeight="28300" activeTab="1" xr2:uid="{24FF55B5-6C47-2F42-8CB6-15ADE3456439}"/>
+    <workbookView xWindow="2540" yWindow="500" windowWidth="18360" windowHeight="28300" activeTab="5" xr2:uid="{24FF55B5-6C47-2F42-8CB6-15ADE3456439}"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="304">
   <si>
     <t>https://devops.com/putting-biz-devops/</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>https://stories.schubergphilis.com/bizdevops-bridging-that-dominant-divide-between-business-and-it-c1194297a706</t>
-  </si>
-  <si>
-    <t>https://pm-coe.com/bizdevops-is-trending/</t>
   </si>
   <si>
     <t>DevOps 2.0 or BizDevOps, DevOps 2.0 is now focused on extending the benefits of feedback to the entire organization (marketing, sales, product, etc.</t>
@@ -202,9 +199,6 @@
     <t>many application lifecycle management tools do not have the most appropriate features to manage requirements in a collaborative and holistic way</t>
   </si>
   <si>
-    <t>https://www.capgemini.com/fi-en/2020/10/bizdevops-to-enable-a-product-thinking-approach/</t>
-  </si>
-  <si>
     <t>https://schubergphilis.com/en/how-we-work/bizdevops</t>
   </si>
   <si>
@@ -241,30 +235,6 @@
     <t>https://www.frontier-enterprise.com/user-experience-done-right-with-bizdevops/</t>
   </si>
   <si>
-    <t>BUILD AUTOMATION – An automated code is prepared to be deployed in a live environment</t>
-  </si>
-  <si>
-    <t>CI/ CD – Continuous Integration and Continuous Deployment deals with frequent merging of codes and unit testing</t>
-  </si>
-  <si>
-    <t>INFRASTRUCTURE AS CODE – This is usually to manage and provision IT infrastructure through code and automation</t>
-  </si>
-  <si>
-    <t>CONFIGURATION MANAGEMENT – This is the process where you can manage and change the state of infrastructure in constant and maintainable ways</t>
-  </si>
-  <si>
-    <t>ORCHESTRATION – Orchestration is nothing but an automation that supports processes and workflows</t>
-  </si>
-  <si>
-    <t>MONITORING – By this method, you collect and present data about the performance and stability of services and infrastructure, while also detecting problems</t>
-  </si>
-  <si>
-    <t>MICROSERVICES – It is basically an architecture that breaks an application into many small and loosely collected services</t>
-  </si>
-  <si>
-    <t>https://www.digite.com/blog/introduction-to-devops/</t>
-  </si>
-  <si>
     <t>https://schubergphilis.com/en/stories/bizdevops-the-way-to-bring-technology-to-the-heart-of-business-and-build-bridges-along-the-way</t>
   </si>
   <si>
@@ -353,12 +323,6 @@
   </si>
   <si>
     <t>https://www.quora.com/What-is-DevOps-2-0</t>
-  </si>
-  <si>
-    <t>Core DevOps. Continous Integration Tool (Jenkins). Build Tool (Docker, Maven). Containerization (Docker, Kubernetes). Configuration Management Tool (Chef, Puppet). Log Collection and Monitoring. Version control (Git). Testing (Selenium). Task/Process (Ant). Cloud Deployment (Ansible). Planning (Jira). Deploy and Operate (Docker). Monitor (Nagios)</t>
-  </si>
-  <si>
-    <t>With the term "DevOps toolchain," we refer to the tools a team uses to make the management, development, and delivery processes of a product's life cycle easier, more effective, and aligned with the organization's DevOps culture. DevOps toolchains ensure quality as well as a fast deployment process and quick problem resolution</t>
   </si>
   <si>
     <t>https://blog.griddynamics.com/the-continuous-delivery-problem-has-been-solved-and-its-time-to-implement/</t>
@@ -1829,74 +1793,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> across the business, optimising performance and improving efficiency</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">by incorporating Business Operations into the DevOps loop, your </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ability to react</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>changing needs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of the customer improves dramatically as the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>silo mentality</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> that often exists between the business and technology teams becomes less significant</t>
     </r>
   </si>
   <si>
@@ -5821,10 +5717,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -5833,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
@@ -5844,10 +5740,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -5855,7 +5751,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
@@ -5866,7 +5762,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -5877,7 +5773,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>23</v>
@@ -5888,7 +5784,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>22</v>
@@ -5899,7 +5795,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
@@ -5910,10 +5806,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -5921,7 +5817,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -5932,10 +5828,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -5943,10 +5839,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5954,10 +5850,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -5965,10 +5861,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5976,10 +5872,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -5987,10 +5883,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -5998,10 +5894,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -6040,7 +5936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6B4AD1-1649-9347-B55E-0CB86488F79D}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -6053,10 +5949,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -6065,10 +5961,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6076,10 +5972,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6087,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6098,10 +5994,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6109,7 +6005,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
@@ -6120,10 +6016,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -6131,10 +6027,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6142,7 +6038,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>18</v>
@@ -6153,10 +6049,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6164,10 +6060,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6175,7 +6071,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>18</v>
@@ -6186,10 +6082,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6197,10 +6093,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6208,10 +6104,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -6219,10 +6115,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -6230,10 +6126,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6241,10 +6137,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6277,10 +6173,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F5945E-527C-E144-A7B1-5AF939021FC4}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6292,10 +6188,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -6305,7 +6201,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
@@ -6316,10 +6212,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6327,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6338,10 +6234,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -6349,10 +6245,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -6360,7 +6256,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>24</v>
@@ -6371,7 +6267,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>19</v>
@@ -6382,149 +6278,138 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C20">
-    <sortCondition ref="A2:A20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C19">
+    <sortCondition ref="A2:A19"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{AC07E29A-2EA5-984C-9EEE-66F4CA8E794F}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{AC07E29A-2EA5-984C-9EEE-66F4CA8E794F}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{7FB91AB3-7222-694D-A3AD-866450F36F5E}"/>
-    <hyperlink ref="C17" r:id="rId3" xr:uid="{4A640D08-EBF4-8F4A-8856-5F47F80F5D40}"/>
+    <hyperlink ref="C16" r:id="rId3" xr:uid="{4A640D08-EBF4-8F4A-8856-5F47F80F5D40}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{003B03BF-E609-614B-98CF-1A5D410899E1}"/>
     <hyperlink ref="C3" r:id="rId5" xr:uid="{B16203AC-4FA1-FE4D-B2DF-9CC172D22EF0}"/>
     <hyperlink ref="C5" r:id="rId6" xr:uid="{D80001B0-95A7-DC4E-8BB7-975BD333D4E2}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{C7E30FDA-F600-164F-BC18-F1B93B01D95C}"/>
-    <hyperlink ref="C16" r:id="rId8" xr:uid="{8BCC2663-E4E9-C544-BFED-89C9BD84083D}"/>
-    <hyperlink ref="C18" r:id="rId9" xr:uid="{0D47DCE5-E604-CD4F-8403-303F8E3E2572}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{38756CCB-6322-1342-BB8A-D061FF5C2985}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{C7E30FDA-F600-164F-BC18-F1B93B01D95C}"/>
+    <hyperlink ref="C15" r:id="rId8" xr:uid="{8BCC2663-E4E9-C544-BFED-89C9BD84083D}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{0D47DCE5-E604-CD4F-8403-303F8E3E2572}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{38756CCB-6322-1342-BB8A-D061FF5C2985}"/>
     <hyperlink ref="C4" r:id="rId11" xr:uid="{6A795583-ED07-EB40-B2F8-9E7A74A32B6B}"/>
     <hyperlink ref="C8" r:id="rId12" xr:uid="{FD509516-E13B-244F-9B1E-6FA07D878B0D}"/>
-    <hyperlink ref="C19" r:id="rId13" xr:uid="{224F2342-1A36-C841-9E7C-501373F8B831}"/>
-    <hyperlink ref="C10" r:id="rId14" xr:uid="{0C3CDEC1-FE71-FC4B-8451-55737FF283DD}"/>
-    <hyperlink ref="C9" r:id="rId15" xr:uid="{51511CB1-B427-D84C-9503-156A38F92212}"/>
-    <hyperlink ref="C14" r:id="rId16" xr:uid="{C2541AFD-7413-B84F-869A-C8B51E79391D}"/>
-    <hyperlink ref="C15" r:id="rId17" xr:uid="{1ABCD9B9-56D5-4640-A844-83FB1268A9C2}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{224F2342-1A36-C841-9E7C-501373F8B831}"/>
+    <hyperlink ref="C9" r:id="rId14" xr:uid="{51511CB1-B427-D84C-9503-156A38F92212}"/>
+    <hyperlink ref="C13" r:id="rId15" xr:uid="{C2541AFD-7413-B84F-869A-C8B51E79391D}"/>
+    <hyperlink ref="C14" r:id="rId16" xr:uid="{1ABCD9B9-56D5-4640-A844-83FB1268A9C2}"/>
+    <hyperlink ref="C6" r:id="rId17" xr:uid="{A3D8EB15-4755-4648-A657-22004C52B0BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6536,7 +6421,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6548,10 +6433,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -6560,10 +6445,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6571,10 +6456,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6582,10 +6467,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6593,10 +6478,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6604,10 +6489,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6615,10 +6500,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -6626,10 +6511,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6637,10 +6522,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6648,10 +6533,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -6659,10 +6544,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -6690,7 +6575,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C9050C-5227-D04D-AAE6-BE56A363749C}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6700,10 +6587,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -6713,10 +6600,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -6724,10 +6611,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6735,10 +6622,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6746,7 +6633,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -6757,10 +6644,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -6768,10 +6655,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -6779,7 +6666,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
@@ -6790,10 +6677,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6801,10 +6688,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6812,10 +6699,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6823,10 +6710,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6834,10 +6721,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6845,10 +6732,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6856,10 +6743,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6867,7 +6754,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>26</v>
@@ -6878,10 +6765,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6889,7 +6776,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
@@ -6900,7 +6787,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>12</v>
@@ -6911,7 +6798,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
@@ -6922,7 +6809,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>6</v>
@@ -6933,7 +6820,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>18</v>
@@ -6963,6 +6850,8 @@
     <hyperlink ref="C17" r:id="rId17" xr:uid="{583CB74F-6584-8F44-BEF0-EE7067C68751}"/>
     <hyperlink ref="C12" r:id="rId18" xr:uid="{61483F65-2C0F-5B41-AC4E-9C84E18210B3}"/>
     <hyperlink ref="C11" r:id="rId19" xr:uid="{CFC10652-DDA0-544E-92CD-A346DAE737D6}"/>
+    <hyperlink ref="C9" r:id="rId20" xr:uid="{8EC4982C-CE1A-0F46-AD02-08FEF9D642FF}"/>
+    <hyperlink ref="C13" r:id="rId21" xr:uid="{61382E5F-624C-ED44-8467-7E8C90D4A42D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6973,8 +6862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE201B06-D56B-C74A-8F8B-0CB5739F6F4D}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD60"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6986,10 +6875,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C1" s="14"/>
     </row>
@@ -6998,7 +6887,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -7009,7 +6898,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>26</v>
@@ -7020,10 +6909,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -7031,7 +6920,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>22</v>
@@ -7042,10 +6931,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -7053,10 +6942,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -7064,10 +6953,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -7075,10 +6964,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -7086,10 +6975,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -7097,10 +6986,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -7108,10 +6997,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -7119,10 +7008,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -7130,10 +7019,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -7141,10 +7030,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -7152,10 +7041,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -7163,10 +7052,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -7174,7 +7063,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>18</v>
@@ -7185,7 +7074,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>18</v>
@@ -7196,10 +7085,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -7207,10 +7096,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -7218,10 +7107,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -7229,10 +7118,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -7240,10 +7129,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -7251,7 +7140,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -7262,10 +7151,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -7273,10 +7162,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -7284,7 +7173,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>26</v>
@@ -7295,7 +7184,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>26</v>
@@ -7306,10 +7195,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -7317,10 +7206,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -7328,10 +7217,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -7339,10 +7228,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -7350,10 +7239,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -7361,10 +7250,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -7372,7 +7261,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>26</v>
@@ -7383,7 +7272,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>26</v>
@@ -7394,7 +7283,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>26</v>
@@ -7405,10 +7294,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -7416,10 +7305,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -7427,10 +7316,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -7438,7 +7327,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>26</v>
@@ -7449,7 +7338,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>24</v>
@@ -7460,10 +7349,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -7471,10 +7360,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -7504,30 +7393,31 @@
     <hyperlink ref="C22" r:id="rId15" xr:uid="{33BEFB68-53D5-1C4A-83EF-9BC33DACE9BB}"/>
     <hyperlink ref="C6" r:id="rId16" xr:uid="{223D13E2-0924-1042-955F-C1E3B783A3D4}"/>
     <hyperlink ref="C20" r:id="rId17" xr:uid="{95888A2F-CEEB-B448-9FD5-C3F048DC34CC}"/>
-    <hyperlink ref="C11" r:id="rId18" xr:uid="{D0F60E93-838F-E14B-AA79-416CD1BEF9FC}"/>
-    <hyperlink ref="C43" r:id="rId19" xr:uid="{C299D208-E203-A246-B781-589B6AE16522}"/>
-    <hyperlink ref="C28" r:id="rId20" xr:uid="{DFCD99FD-78E6-5D43-B8AE-C7B1BB8E65A8}"/>
-    <hyperlink ref="C37" r:id="rId21" xr:uid="{4CE256FF-804B-DA45-AC28-1A0462DAB15D}"/>
-    <hyperlink ref="C42" r:id="rId22" xr:uid="{27FDEE33-B246-0D41-A57B-31E4A7E50D15}"/>
-    <hyperlink ref="C36" r:id="rId23" xr:uid="{328CCFFA-B7DF-5E41-BB51-CD32E33B46FA}"/>
-    <hyperlink ref="C29" r:id="rId24" xr:uid="{7613EA27-4728-4846-8444-2CC7F59B032B}"/>
-    <hyperlink ref="C27" r:id="rId25" xr:uid="{89DF8628-03EF-D34C-B611-E66D3EBB8B0C}"/>
-    <hyperlink ref="C12" r:id="rId26" xr:uid="{AB727208-E3BD-D347-B095-EA851DA5C06B}"/>
-    <hyperlink ref="C32" r:id="rId27" xr:uid="{52B90B0B-E918-DB44-8C85-D0F82ADDE2FF}"/>
-    <hyperlink ref="C33" r:id="rId28" xr:uid="{E0595199-6C20-2448-8C97-FA59711EFE33}"/>
-    <hyperlink ref="C44" r:id="rId29" xr:uid="{28140BC2-D054-7E43-BFA9-4A2CC7CC5C11}"/>
-    <hyperlink ref="C34" r:id="rId30" xr:uid="{21275CA4-6D7A-FC40-870B-42BF42A4071D}"/>
-    <hyperlink ref="C24" r:id="rId31" xr:uid="{C6A33FA4-DEF4-BD4A-BC53-EFC63BECC1E3}"/>
-    <hyperlink ref="C31" r:id="rId32" xr:uid="{75DDC74A-F2AF-794A-BBBD-82CA3738E438}"/>
-    <hyperlink ref="C23" r:id="rId33" xr:uid="{8D698F0B-392E-9342-A5D8-F91454F8F453}"/>
-    <hyperlink ref="C25" r:id="rId34" xr:uid="{C4F176EC-7FB1-024A-B0D6-48558E29F2FC}"/>
-    <hyperlink ref="C45" r:id="rId35" xr:uid="{01BED32A-0FF0-2C4E-B912-DE81CC2B118D}"/>
-    <hyperlink ref="C39" r:id="rId36" xr:uid="{F56E569A-6F45-9247-9D8A-D4E151EE3BEE}"/>
-    <hyperlink ref="C40" r:id="rId37" xr:uid="{3237996F-794A-C24D-B272-EA54A22826F0}"/>
-    <hyperlink ref="C16" r:id="rId38" xr:uid="{CAB16B2B-74F7-8841-9AA8-8C6FF6869CB1}"/>
-    <hyperlink ref="C17" r:id="rId39" xr:uid="{BBEDFA74-6A73-6044-9919-9845D2C0A84C}"/>
-    <hyperlink ref="C38" r:id="rId40" xr:uid="{C32B96F7-19B0-4740-B5F9-7100B3FCFFFA}"/>
-    <hyperlink ref="C41" r:id="rId41" xr:uid="{22A4E808-7860-8C4A-A21A-78678FD0D26E}"/>
+    <hyperlink ref="C43" r:id="rId18" xr:uid="{C299D208-E203-A246-B781-589B6AE16522}"/>
+    <hyperlink ref="C28" r:id="rId19" xr:uid="{DFCD99FD-78E6-5D43-B8AE-C7B1BB8E65A8}"/>
+    <hyperlink ref="C37" r:id="rId20" xr:uid="{4CE256FF-804B-DA45-AC28-1A0462DAB15D}"/>
+    <hyperlink ref="C42" r:id="rId21" xr:uid="{27FDEE33-B246-0D41-A57B-31E4A7E50D15}"/>
+    <hyperlink ref="C36" r:id="rId22" xr:uid="{328CCFFA-B7DF-5E41-BB51-CD32E33B46FA}"/>
+    <hyperlink ref="C29" r:id="rId23" xr:uid="{7613EA27-4728-4846-8444-2CC7F59B032B}"/>
+    <hyperlink ref="C27" r:id="rId24" xr:uid="{89DF8628-03EF-D34C-B611-E66D3EBB8B0C}"/>
+    <hyperlink ref="C12" r:id="rId25" xr:uid="{AB727208-E3BD-D347-B095-EA851DA5C06B}"/>
+    <hyperlink ref="C32" r:id="rId26" xr:uid="{52B90B0B-E918-DB44-8C85-D0F82ADDE2FF}"/>
+    <hyperlink ref="C33" r:id="rId27" xr:uid="{E0595199-6C20-2448-8C97-FA59711EFE33}"/>
+    <hyperlink ref="C44" r:id="rId28" xr:uid="{28140BC2-D054-7E43-BFA9-4A2CC7CC5C11}"/>
+    <hyperlink ref="C34" r:id="rId29" xr:uid="{21275CA4-6D7A-FC40-870B-42BF42A4071D}"/>
+    <hyperlink ref="C24" r:id="rId30" xr:uid="{C6A33FA4-DEF4-BD4A-BC53-EFC63BECC1E3}"/>
+    <hyperlink ref="C31" r:id="rId31" xr:uid="{75DDC74A-F2AF-794A-BBBD-82CA3738E438}"/>
+    <hyperlink ref="C23" r:id="rId32" xr:uid="{8D698F0B-392E-9342-A5D8-F91454F8F453}"/>
+    <hyperlink ref="C25" r:id="rId33" xr:uid="{C4F176EC-7FB1-024A-B0D6-48558E29F2FC}"/>
+    <hyperlink ref="C45" r:id="rId34" xr:uid="{01BED32A-0FF0-2C4E-B912-DE81CC2B118D}"/>
+    <hyperlink ref="C39" r:id="rId35" xr:uid="{F56E569A-6F45-9247-9D8A-D4E151EE3BEE}"/>
+    <hyperlink ref="C40" r:id="rId36" xr:uid="{3237996F-794A-C24D-B272-EA54A22826F0}"/>
+    <hyperlink ref="C16" r:id="rId37" xr:uid="{CAB16B2B-74F7-8841-9AA8-8C6FF6869CB1}"/>
+    <hyperlink ref="C17" r:id="rId38" xr:uid="{BBEDFA74-6A73-6044-9919-9845D2C0A84C}"/>
+    <hyperlink ref="C38" r:id="rId39" xr:uid="{C32B96F7-19B0-4740-B5F9-7100B3FCFFFA}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{22A4E808-7860-8C4A-A21A-78678FD0D26E}"/>
+    <hyperlink ref="C26" r:id="rId41" xr:uid="{43CC4161-88F4-274D-BB67-49F41C4833E1}"/>
+    <hyperlink ref="C30" r:id="rId42" xr:uid="{88D5DFD3-D3A9-0147-9847-78E7E5C8EC4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7536,10 +7426,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130A6854-5D3B-F34C-93FC-204C4098EC50}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:XFD87"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7551,10 +7441,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -7564,10 +7454,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -7575,7 +7465,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>24</v>
@@ -7586,7 +7476,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
@@ -7597,10 +7487,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -7608,7 +7498,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -7619,10 +7509,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -7630,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>3</v>
@@ -7641,7 +7531,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>18</v>
@@ -7652,7 +7542,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -7663,7 +7553,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
@@ -7674,10 +7564,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7685,10 +7575,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7696,10 +7586,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -7707,10 +7597,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -7718,10 +7608,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -7729,7 +7619,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>1</v>
@@ -7740,7 +7630,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
@@ -7751,7 +7641,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>3</v>
@@ -7762,7 +7652,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>1</v>
@@ -7773,10 +7663,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -7784,7 +7674,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>6</v>
@@ -7795,10 +7685,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -7806,10 +7696,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -7817,10 +7707,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -7828,10 +7718,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -7839,10 +7729,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -7850,7 +7740,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>22</v>
@@ -7861,10 +7751,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -7872,10 +7762,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -7883,7 +7773,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>23</v>
@@ -7894,10 +7784,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -7905,10 +7795,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -7916,10 +7806,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -7927,10 +7817,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -7938,10 +7828,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -7949,10 +7839,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -7960,10 +7850,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -7971,10 +7861,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -7982,10 +7872,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -7993,10 +7883,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -8004,10 +7894,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -8015,10 +7905,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -8026,10 +7916,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -8038,10 +7928,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -8050,10 +7940,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -8061,10 +7951,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8072,10 +7962,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -8083,10 +7973,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -8105,10 +7995,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -8116,7 +8006,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>24</v>
@@ -8144,233 +8034,229 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
         <v>55</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="B56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A57" s="10">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A56" s="10">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" s="10">
+      <c r="C57" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="10">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C58" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" s="10">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="10">
         <v>59</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A58" s="10">
-        <v>56</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="10">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="10">
-        <v>58</v>
-      </c>
       <c r="B60" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A62" s="10">
         <v>61</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="10">
-        <v>60</v>
-      </c>
       <c r="B62" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="10">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="10">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>286</v>
+        <v>58</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B75" s="2"/>
-      <c r="C75" s="3"/>
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C74">
-    <sortCondition ref="A2:A74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C73">
+    <sortCondition ref="A2:A73"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{E6EFDCAD-7008-7744-B72A-2BCC04D5B6FA}"/>
@@ -8388,7 +8274,7 @@
     <hyperlink ref="C15" r:id="rId13" xr:uid="{A5668DCF-AD70-6A4A-8045-A315FF560EF9}"/>
     <hyperlink ref="C43" r:id="rId14" xr:uid="{3FC37D2D-9D42-7B49-B1B4-52D0E471E89F}"/>
     <hyperlink ref="C44" r:id="rId15" xr:uid="{D54C4742-1229-F042-BA68-70361BA13C46}"/>
-    <hyperlink ref="C71" r:id="rId16" xr:uid="{F2AD28D4-6BAF-ED44-9F5B-B2132D2B8790}"/>
+    <hyperlink ref="C70" r:id="rId16" xr:uid="{F2AD28D4-6BAF-ED44-9F5B-B2132D2B8790}"/>
     <hyperlink ref="C45" r:id="rId17" xr:uid="{F9CC5AE7-B025-9843-8CEB-8D2F94FAAAEE}"/>
     <hyperlink ref="C47" r:id="rId18" xr:uid="{BDD2941C-4341-4F4F-9546-103808D39958}"/>
     <hyperlink ref="C46" r:id="rId19" xr:uid="{D2A756F0-F83A-2E4E-A3A5-9FC3B7696D8F}"/>
@@ -8397,12 +8283,12 @@
     <hyperlink ref="C53" r:id="rId22" xr:uid="{BF02B7C7-7F7E-2F44-A4BC-B68E5180451F}"/>
     <hyperlink ref="C52" r:id="rId23" xr:uid="{DDC7E95A-E0FC-2E44-BF9D-051225122E29}"/>
     <hyperlink ref="C51" r:id="rId24" xr:uid="{9A7415CF-F012-D841-B388-B221DEE1CBC8}"/>
-    <hyperlink ref="C63" r:id="rId25" xr:uid="{07D8495E-73E0-AC42-B05D-AC23C24FB861}"/>
-    <hyperlink ref="C65" r:id="rId26" xr:uid="{7A14ADAF-6872-7E41-B33C-82F96AEEDB60}"/>
-    <hyperlink ref="C66" r:id="rId27" xr:uid="{9A21F835-A4E3-9545-BA5E-164F682BEEED}"/>
-    <hyperlink ref="C67" r:id="rId28" xr:uid="{F9AAAA84-D8A3-FB4D-81A7-32BEAF23498A}"/>
+    <hyperlink ref="C62" r:id="rId25" xr:uid="{07D8495E-73E0-AC42-B05D-AC23C24FB861}"/>
+    <hyperlink ref="C64" r:id="rId26" xr:uid="{7A14ADAF-6872-7E41-B33C-82F96AEEDB60}"/>
+    <hyperlink ref="C65" r:id="rId27" xr:uid="{9A21F835-A4E3-9545-BA5E-164F682BEEED}"/>
+    <hyperlink ref="C66" r:id="rId28" xr:uid="{F9AAAA84-D8A3-FB4D-81A7-32BEAF23498A}"/>
     <hyperlink ref="C38" r:id="rId29" xr:uid="{8987438F-9845-5845-9BC3-BB7CE937F8EC}"/>
-    <hyperlink ref="C64" r:id="rId30" xr:uid="{D18ADBEA-10E7-1949-8269-44B09BE4EBB9}"/>
+    <hyperlink ref="C63" r:id="rId30" xr:uid="{D18ADBEA-10E7-1949-8269-44B09BE4EBB9}"/>
     <hyperlink ref="C20" r:id="rId31" xr:uid="{C220D29B-9DAC-A944-BBD1-92E0C0EBF043}"/>
     <hyperlink ref="C19" r:id="rId32" xr:uid="{103B713C-891A-684A-B7B7-275836B65619}"/>
     <hyperlink ref="C31" r:id="rId33" xr:uid="{E70E9FA5-2D2D-AB4C-AEE4-F5CF19D8E37A}"/>
@@ -8410,8 +8296,8 @@
     <hyperlink ref="C33" r:id="rId35" xr:uid="{2C7EFC13-1B34-6244-B2AD-D81EB19AD765}"/>
     <hyperlink ref="C35" r:id="rId36" xr:uid="{8B1DEAAD-932D-2C41-AC9F-91376E686AAC}"/>
     <hyperlink ref="C7" r:id="rId37" xr:uid="{AEAE8EC8-3823-8245-B718-52FE98A8E51D}"/>
-    <hyperlink ref="C69" r:id="rId38" xr:uid="{067806F4-E0D9-6443-979F-E10FE8436570}"/>
-    <hyperlink ref="C70" r:id="rId39" xr:uid="{877E6301-A1D9-F041-A4E4-AE4E9D6F68D6}"/>
+    <hyperlink ref="C68" r:id="rId38" xr:uid="{067806F4-E0D9-6443-979F-E10FE8436570}"/>
+    <hyperlink ref="C69" r:id="rId39" xr:uid="{877E6301-A1D9-F041-A4E4-AE4E9D6F68D6}"/>
     <hyperlink ref="C18" r:id="rId40" xr:uid="{CCC5A103-B925-5840-AF23-112AEEC586B3}"/>
     <hyperlink ref="C22" r:id="rId41" xr:uid="{FC01238A-22C9-F643-B208-6B14145FAF6F}"/>
     <hyperlink ref="C23" r:id="rId42" xr:uid="{DCAED8EF-CD4C-F442-ADD5-C9102E64131C}"/>
@@ -8420,29 +8306,30 @@
     <hyperlink ref="C41" r:id="rId45" xr:uid="{6BFA3B55-85D8-7B45-BA2D-E38B4BC71C27}"/>
     <hyperlink ref="C40" r:id="rId46" xr:uid="{1BA0BA58-7B79-7349-B714-0C71D6A4E193}"/>
     <hyperlink ref="C37" r:id="rId47" xr:uid="{4206CA96-8816-B749-B268-3AD5A08E695C}"/>
-    <hyperlink ref="C60" r:id="rId48" xr:uid="{EE71E097-1347-1045-8522-B102BEDE25BD}"/>
-    <hyperlink ref="C55" r:id="rId49" xr:uid="{5842F2D8-BCD0-A14A-BE02-305387E23730}"/>
-    <hyperlink ref="C58" r:id="rId50" xr:uid="{84E2C940-D006-D146-85EF-E2E7B7F7C048}"/>
-    <hyperlink ref="C62" r:id="rId51" xr:uid="{A0F335D2-744D-954A-89DD-A06218966915}"/>
-    <hyperlink ref="C59" r:id="rId52" xr:uid="{3A626B50-1E45-2244-A053-9FD28B33F9C4}"/>
-    <hyperlink ref="C57" r:id="rId53" xr:uid="{4EC7C8FE-1476-3A4E-B1E0-6AC24E9D95D1}"/>
-    <hyperlink ref="C74" r:id="rId54" xr:uid="{5F74C4C0-9BA3-FF4D-BB13-F05F924AB0F4}"/>
-    <hyperlink ref="C61" r:id="rId55" xr:uid="{94E30865-AEED-5341-9184-2090A2D4D2BC}"/>
+    <hyperlink ref="C59" r:id="rId48" xr:uid="{EE71E097-1347-1045-8522-B102BEDE25BD}"/>
+    <hyperlink ref="C74" r:id="rId49" xr:uid="{5842F2D8-BCD0-A14A-BE02-305387E23730}"/>
+    <hyperlink ref="C57" r:id="rId50" xr:uid="{84E2C940-D006-D146-85EF-E2E7B7F7C048}"/>
+    <hyperlink ref="C61" r:id="rId51" xr:uid="{A0F335D2-744D-954A-89DD-A06218966915}"/>
+    <hyperlink ref="C58" r:id="rId52" xr:uid="{3A626B50-1E45-2244-A053-9FD28B33F9C4}"/>
+    <hyperlink ref="C56" r:id="rId53" xr:uid="{4EC7C8FE-1476-3A4E-B1E0-6AC24E9D95D1}"/>
+    <hyperlink ref="C73" r:id="rId54" xr:uid="{5F74C4C0-9BA3-FF4D-BB13-F05F924AB0F4}"/>
+    <hyperlink ref="C60" r:id="rId55" xr:uid="{94E30865-AEED-5341-9184-2090A2D4D2BC}"/>
     <hyperlink ref="C48" r:id="rId56" xr:uid="{A6FD9AA3-63A1-AB43-BB40-B18DB1208582}"/>
-    <hyperlink ref="C72" r:id="rId57" xr:uid="{327DCABA-B1CF-6449-BA62-606817BF5261}"/>
+    <hyperlink ref="C71" r:id="rId57" xr:uid="{327DCABA-B1CF-6449-BA62-606817BF5261}"/>
     <hyperlink ref="C32" r:id="rId58" xr:uid="{E13EF585-DCAA-E94B-A61F-545D01791FAA}"/>
-    <hyperlink ref="C73" r:id="rId59" xr:uid="{E5044748-B745-5945-988F-92E184F18340}"/>
-    <hyperlink ref="C56" r:id="rId60" xr:uid="{4C94F02B-72B9-B14B-867B-3CD50E275BCC}"/>
+    <hyperlink ref="C72" r:id="rId59" xr:uid="{E5044748-B745-5945-988F-92E184F18340}"/>
+    <hyperlink ref="C55" r:id="rId60" xr:uid="{4C94F02B-72B9-B14B-867B-3CD50E275BCC}"/>
     <hyperlink ref="C49" r:id="rId61" xr:uid="{DE487AC2-8515-2E4D-829A-A6405CF40BF8}"/>
     <hyperlink ref="C25" r:id="rId62" xr:uid="{F3ACCCB5-1228-9D4C-AF22-4EFB73FF34EB}"/>
     <hyperlink ref="C26" r:id="rId63" xr:uid="{A747F56F-409B-4740-BA87-A47F18FF889D}"/>
     <hyperlink ref="C27" r:id="rId64" xr:uid="{B8CE7643-0CE8-C947-870A-A34A7306F876}"/>
     <hyperlink ref="C28" r:id="rId65" xr:uid="{DA9ED633-F1A8-504D-A042-7E4EEA11844D}"/>
     <hyperlink ref="C29" r:id="rId66" xr:uid="{84DE4E97-7A96-324F-8286-926C353B666F}"/>
-    <hyperlink ref="C68" r:id="rId67" xr:uid="{B1704970-8799-3C4A-BD1E-70FE58C32EDF}"/>
+    <hyperlink ref="C67" r:id="rId67" xr:uid="{B1704970-8799-3C4A-BD1E-70FE58C32EDF}"/>
     <hyperlink ref="C36" r:id="rId68" xr:uid="{75F03FA1-83B8-5E4D-8B26-5FA978224E95}"/>
     <hyperlink ref="C12" r:id="rId69" xr:uid="{3AAB6542-18B5-9340-BE86-F808DB60C6E4}"/>
     <hyperlink ref="C21" r:id="rId70" xr:uid="{1794C551-EA62-0744-9450-CE5AEE262A42}"/>
+    <hyperlink ref="C30" r:id="rId71" xr:uid="{4881E0E5-10CA-5649-A40E-4D5D9702D294}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8451,10 +8338,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAE3D6E-FC42-E245-A018-E44B3038E92E}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8466,10 +8353,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -8479,10 +8366,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8490,10 +8377,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -8501,10 +8388,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -8512,7 +8399,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -8523,21 +8410,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -8545,10 +8432,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -8556,10 +8443,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -8567,10 +8454,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -8578,10 +8465,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -8589,10 +8476,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -8600,10 +8487,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -8611,10 +8498,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -8622,10 +8509,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -8633,10 +8520,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -8644,118 +8531,26 @@
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C27">
-    <sortCondition ref="A2:A27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
+    <sortCondition ref="A2:A17"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{1D250734-8B8E-2E42-85AC-E758587D3654}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{7CFD38F1-E761-FA40-8105-B093D65A25B0}"/>
-    <hyperlink ref="C18" r:id="rId3" xr:uid="{7423DBA9-DBA8-294C-96D4-FC6035046F29}"/>
-    <hyperlink ref="C19" r:id="rId4" xr:uid="{8CBB2531-5D63-9A4A-954C-7F68480404D3}"/>
-    <hyperlink ref="C20" r:id="rId5" xr:uid="{EF499560-E5F2-5B43-927C-1D5CED94E4D9}"/>
-    <hyperlink ref="C21" r:id="rId6" xr:uid="{C87BA644-E54A-7A46-BFE0-065175F53E79}"/>
-    <hyperlink ref="C22" r:id="rId7" xr:uid="{915C7D62-1E86-8441-A2C8-790832AC27EA}"/>
-    <hyperlink ref="C23" r:id="rId8" xr:uid="{075839CE-C26D-1148-AFF3-7C21D079D65C}"/>
-    <hyperlink ref="C24" r:id="rId9" xr:uid="{049D87A6-B0EF-424C-9298-97F6AC73C293}"/>
-    <hyperlink ref="C25" r:id="rId10" xr:uid="{BF63EFB4-60F8-5C49-AE7F-B96A06F6BD18}"/>
-    <hyperlink ref="C26" r:id="rId11" xr:uid="{8C5DF9FD-06D0-804E-9139-F42D7DB2056F}"/>
-    <hyperlink ref="C5" r:id="rId12" xr:uid="{22EB6D85-2D6B-E547-B1AA-43F349BD3D22}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{4FEC9B9B-F643-A346-93D2-B77FA49DDC00}"/>
-    <hyperlink ref="C11" r:id="rId14" xr:uid="{B7BEC33E-D7B1-8B42-97BB-3D0682378662}"/>
-    <hyperlink ref="C8" r:id="rId15" xr:uid="{C98CC7B8-A97C-F743-AA9E-499F39D30ED4}"/>
-    <hyperlink ref="C16" r:id="rId16" xr:uid="{13AE1E32-9AE4-7346-9E7B-3D096D2C513A}"/>
-    <hyperlink ref="C15" r:id="rId17" xr:uid="{4BC31D63-1D31-BF40-A02F-EF17B9C98BC1}"/>
-    <hyperlink ref="C10" r:id="rId18" xr:uid="{972688A3-88B0-0B47-9FE8-53C7603E7CC8}"/>
-    <hyperlink ref="C6" r:id="rId19" xr:uid="{70D40101-BBEC-4E43-A123-3FA85B6033E3}"/>
-    <hyperlink ref="C9" r:id="rId20" xr:uid="{B841D635-A7C0-D14A-B4D3-820B8B7B1265}"/>
-    <hyperlink ref="C12" r:id="rId21" xr:uid="{05852435-D832-0445-904E-3FC194A97A86}"/>
-    <hyperlink ref="C4" r:id="rId22" xr:uid="{AC7A2B39-ECBB-AD47-B115-5FCD814BAC6A}"/>
-    <hyperlink ref="C13" r:id="rId23" xr:uid="{8ACC545C-6E36-4E43-9897-F231FCD313D1}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{22EB6D85-2D6B-E547-B1AA-43F349BD3D22}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{4FEC9B9B-F643-A346-93D2-B77FA49DDC00}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{B7BEC33E-D7B1-8B42-97BB-3D0682378662}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{C98CC7B8-A97C-F743-AA9E-499F39D30ED4}"/>
+    <hyperlink ref="C16" r:id="rId7" xr:uid="{13AE1E32-9AE4-7346-9E7B-3D096D2C513A}"/>
+    <hyperlink ref="C15" r:id="rId8" xr:uid="{4BC31D63-1D31-BF40-A02F-EF17B9C98BC1}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{972688A3-88B0-0B47-9FE8-53C7603E7CC8}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{70D40101-BBEC-4E43-A123-3FA85B6033E3}"/>
+    <hyperlink ref="C9" r:id="rId11" xr:uid="{B841D635-A7C0-D14A-B4D3-820B8B7B1265}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{05852435-D832-0445-904E-3FC194A97A86}"/>
+    <hyperlink ref="C4" r:id="rId13" xr:uid="{AC7A2B39-ECBB-AD47-B115-5FCD814BAC6A}"/>
+    <hyperlink ref="C13" r:id="rId14" xr:uid="{8ACC545C-6E36-4E43-9897-F231FCD313D1}"/>
+    <hyperlink ref="C7" r:id="rId15" xr:uid="{9EE4AD94-712D-A049-B39C-5B81F59D3A6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8767,7 +8562,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8779,10 +8574,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -8791,10 +8586,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -8802,10 +8597,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -8813,10 +8608,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -8824,10 +8619,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -8835,10 +8630,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -8846,10 +8641,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -8857,10 +8652,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -8868,10 +8663,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -8879,10 +8674,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
